--- a/Documents/Schedule.xlsx
+++ b/Documents/Schedule.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Projects\TwinStarProjects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Projects\TwinStarProjects\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{306F97C9-D266-458E-8DF7-402E843BA65D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E0E844-A10B-45BB-8BD7-308309940C03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -153,9 +153,6 @@
     <t>Coding Tasks</t>
   </si>
   <si>
-    <t>Help Lay</t>
-  </si>
-  <si>
     <t>Stealth</t>
   </si>
   <si>
@@ -169,6 +166,9 @@
   </si>
   <si>
     <t>Upgrades</t>
+  </si>
+  <si>
+    <t>Help Lay out Level</t>
   </si>
 </sst>
 </file>
@@ -354,7 +354,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -366,8 +366,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
@@ -664,7 +663,7 @@
   <dimension ref="A1:W34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -723,7 +722,7 @@
       <c r="C3" s="2">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E3" t="s">
@@ -740,7 +739,7 @@
       <c r="C4" s="2">
         <v>2</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E4" t="s">
@@ -758,7 +757,7 @@
       <c r="C5" s="2">
         <v>3</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E5" t="s">
@@ -814,14 +813,14 @@
       </c>
     </row>
     <row r="16" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="13" t="s">
+      <c r="B16" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="15"/>
+      <c r="D16" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="14"/>
+      <c r="E16" s="13"/>
     </row>
     <row r="17" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="6" t="s">
@@ -831,10 +830,10 @@
         <v>33</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F17" s="9" t="s">
         <v>41</v>
@@ -848,10 +847,10 @@
         <v>32</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F18" s="11" t="s">
         <v>36</v>
@@ -862,24 +861,24 @@
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
-      <c r="F19" s="12" t="s">
+      <c r="F19" s="5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="19" t="s">
+      <c r="D20" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="20" t="s">
+      <c r="E20" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="12" t="s">
+      <c r="F20" s="5" t="s">
         <v>38</v>
       </c>
     </row>
@@ -921,7 +920,7 @@
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="7" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>18</v>
